--- a/biology/Botanique/Tillandsia_platyrhachis/Tillandsia_platyrhachis.xlsx
+++ b/biology/Botanique/Tillandsia_platyrhachis/Tillandsia_platyrhachis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia platyrhachis Mez est une plante de la famille des Bromeliaceae.
 L'épithète platyrhachis signifie « à rachis large » et se rapporte à l'aspect de l'inflorescence.
@@ -512,13 +524,15 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia platyrhachis Mez in C.DC., Monogr. Phan. 9: 848 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « foliis ignotis; inflorescentia tripinnatim panniculata ; spicis densiuscule pinnatis, rhachi alis binis de bracteolarum quam sepala optime breviorum dorso decurrentibus valde dilatata floribusque recipiendis excavata ; floribus suberectis ; sepalis aequaliter liberis ; petalis lamina saturate violacea, suborbiculari, explanata certe 10 mm. lata ; staminibus profunde inclusis stylum paullo superantibus. »
 Type :
-leg. W. Kalbreyer, n° 1328 ; « Columbiae prov. Antioquia, alt. 1300-1500 m » ; Holotypus Herb. Kew[1].
+leg. W. Kalbreyer, n° 1328 ; « Columbiae prov. Antioquia, alt. 1300-1500 m » ; Holotypus Herb. Kew.
 leg. W. Kalbreyer, n° 1328, 1880-01-14 ; « Dep. Antioquia: Dos Quebradas. Im Hald, auf Bäumen. 4-4500' » ; Isotypus B (B 10 0243490)</t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,11 +621,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte[2] ou terrestre[2].
-Habitat : forêt pluviale[2].
-Altitude : 1300-1 900 m[2].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte ou terrestre.
+Habitat : forêt pluviale.
+Altitude : 1300-1 900 m.</t>
         </is>
       </c>
     </row>
@@ -635,15 +655,17 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du Sud :
  Colombie
-Antioquia[1]
-Sud de la Colombie[2]
- Équateur[2]
+Antioquia
+Sud de la Colombie
+ Équateur
  Pérou
-Centre du Pérou[2]</t>
+Centre du Pérou</t>
         </is>
       </c>
     </row>
@@ -671,9 +693,11 @@
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia platyrhachis est de culture aisée[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia platyrhachis est de culture aisée.
 </t>
         </is>
       </c>
@@ -704,24 +728,99 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tillandsia platyrhachis var. platyrhachis
-(autonyme)
+          <t>Tillandsia platyrhachis var. platyrhachis</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(autonyme)
 Synonymie taxonomique :
-Tillandsia platyrhachis var. alba Rauh &amp; Hirtz[2]
 Tillandsia platyrhachis var. alba Rauh &amp; Hirtz
-L'épithète alba signifie « blanche ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tillandsia_platyrhachis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_platyrhachis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tillandsia platyrhachis var. alba Rauh &amp; Hirtz</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète alba signifie « blanche ».
 Tillandsia platyrhachis var. alba Rauh &amp; Hirtz, in J. Bromeliad Soc. 35(3): 116 (1985) [sine lat. diag.] ; in Abh. Akad. Wiss. Lit. Mainz, Math.-Naturwiss. Klasse, Trop. Subtrop. Pflanzenwelt 53: 11 (1985) [cum lat. diag.]
 Diagnose originale : (à compléter)
 Type : (à compléter)
 Synonymie taxonomique :
-Tillandsia platyrhachis var. platyrhachis[2]
+Tillandsia platyrhachis var. platyrhachis
 Distribution : Équateur.
-Tillandsia platyrhachis var. magnifica Rauh &amp; Bismarck
-L'épithète magnifica signifie « magnifique, grandiose » et est une allusion à la plus grande taille de la variété.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tillandsia_platyrhachis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_platyrhachis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tillandsia platyrhachis var. magnifica Rauh &amp; Bismarck</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète magnifica signifie « magnifique, grandiose » et est une allusion à la plus grande taille de la variété.
 Tillandsia platyrhachis var. magnifica Rauh &amp; Bismarck, in J. Bromeliad Soc. 35(3): 113 (1985) [sine lat. diag.] ; in Abh. Akad. Wiss. Lit. Mainz, Math.-Naturwiss. Klasse, Trop. Subtrop. Pflanzenwelt 53: 9 (1985) [cum lat. diag.]
 Diagnose originale : (à compléter)
 Type : (à compléter)
-Distribution : Pérou[2].
+Distribution : Pérou.
 </t>
         </is>
       </c>
